--- a/test/benchmark-4.4.38-nort/mixbench/mixbench-cuda-ro.xlsx
+++ b/test/benchmark-4.4.38-nort/mixbench/mixbench-cuda-ro.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loki/Desktop/devel/nvidia-jetson-rt/test/benchmark-4.4.38-nort/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loki/Desktop/devel/nvidia-jetson-rt/test/benchmark-4.4.38-nort/mixbench/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1251,11 +1251,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2027484448"/>
-        <c:axId val="-2027479840"/>
+        <c:axId val="-1681592688"/>
+        <c:axId val="-1681588080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2027484448"/>
+        <c:axId val="-1681592688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="320.0"/>
@@ -1359,13 +1359,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2027479840"/>
+        <c:crossAx val="-1681588080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2027479840"/>
+        <c:axId val="-1681588080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="22.0"/>
@@ -1463,7 +1463,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2027484448"/>
+        <c:crossAx val="-1681592688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0"/>
@@ -2119,15 +2119,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
